--- a/progress track.xlsx
+++ b/progress track.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="progress" sheetId="1" r:id="rId1"/>
+    <sheet name="assignment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Introduction to streamlit</t>
   </si>
@@ -27,62 +28,24 @@
     <t>Installation and setup</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Creating a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>Hare Krishna</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> app</t>
-    </r>
-  </si>
-  <si>
     <t>Some terminology</t>
   </si>
   <si>
     <t>Using widgets for interactivity</t>
   </si>
   <si>
-    <t>Handling input and forms</t>
-  </si>
-  <si>
     <t>Display anything</t>
   </si>
   <si>
-    <t>Plots and visualizations</t>
-  </si>
-  <si>
     <t>Various stages of a ML applications</t>
   </si>
   <si>
     <t>Deploying an ML model</t>
   </si>
   <si>
-    <t>Handling multiple pages</t>
-  </si>
-  <si>
-    <t>Upload and processing data</t>
-  </si>
-  <si>
     <t>requirements.txt</t>
   </si>
   <si>
-    <t>deploy on streamlit</t>
-  </si>
-  <si>
     <t>Button</t>
   </si>
   <si>
@@ -125,9 +88,6 @@
     <t>sidebar, column, tab</t>
   </si>
   <si>
-    <t>expander, container</t>
-  </si>
-  <si>
     <t>Module 1</t>
   </si>
   <si>
@@ -140,34 +100,119 @@
     <t>Module 3</t>
   </si>
   <si>
-    <t>model input and output for a user</t>
-  </si>
-  <si>
-    <t>material</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>ppt</t>
+    <t>Phone number input</t>
+  </si>
+  <si>
+    <t>Phone numbers are 10 digit numbers. How many different ways can we take the phone number input. Implement each of them. One with maximum number of valid ways will get maximum points</t>
+  </si>
+  <si>
+    <t>Assignment</t>
+  </si>
+  <si>
+    <t>google form implement</t>
+  </si>
+  <si>
+    <t>Create a form to collect form with following fields and validate with showing errors.</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Should not contain number</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>Roll Number</t>
+  </si>
+  <si>
+    <t>Should be standard IITB roll number</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Predict based on roll number</t>
+  </si>
+  <si>
+    <t>Courses registered</t>
+  </si>
+  <si>
+    <t>create a list of 5 courses</t>
+  </si>
+  <si>
+    <t>ask user to select one or more courses</t>
+  </si>
+  <si>
+    <t>Validate they should select at least one course</t>
+  </si>
+  <si>
+    <t>Now display the form filled in a user friendly way</t>
+  </si>
+  <si>
+    <t>1. student wise details</t>
+  </si>
+  <si>
+    <t>2. Course wise students</t>
+  </si>
+  <si>
+    <t>3. Department wise students and number of courses taken</t>
+  </si>
+  <si>
+    <t>google form response</t>
+  </si>
+  <si>
+    <t>Handling multiple pages (optional)</t>
+  </si>
+  <si>
+    <t>expander</t>
+  </si>
+  <si>
+    <t>Handling inputs</t>
+  </si>
+  <si>
+    <t>Assignment 1 mobile number</t>
+  </si>
+  <si>
+    <t>Assignment 2 google form</t>
+  </si>
+  <si>
+    <t>An Overview of the capabilities</t>
+  </si>
+  <si>
+    <t>let's go live (deployment)</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Additional details</t>
+  </si>
+  <si>
+    <t>Building a sample model (MNIST)</t>
+  </si>
+  <si>
+    <t>MNIST model app.py</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
     </font>
     <font>
       <u/>
@@ -177,8 +222,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,8 +254,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -212,17 +275,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -231,29 +309,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -536,273 +626,477 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E30"/>
+  <dimension ref="B3:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="170" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="170" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="33.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="D2" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="5" t="s">
-        <v>29</v>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="5"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
       <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="13"/>
+      <c r="C6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+      <c r="C8" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="14"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="14"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
+      <c r="C14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="14"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="14"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="14"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="14"/>
+      <c r="C18" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="5"/>
-      <c r="C6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="2:5" ht="16.5" customHeight="1">
-      <c r="B7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="15" customHeight="1">
-      <c r="B8" s="9"/>
-      <c r="C8" s="10" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="14"/>
+      <c r="C20" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+      <c r="C21" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="14"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="9"/>
-      <c r="C13" s="10" t="s">
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="15"/>
+      <c r="C26" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="9"/>
-      <c r="C17" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="1" t="s">
+    </row>
+    <row r="27" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="C27" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="9"/>
-      <c r="C19" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="9"/>
-      <c r="C20" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="9"/>
-      <c r="C23" s="10" t="s">
+      <c r="C28" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="14"/>
+      <c r="C29" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="10"/>
-    </row>
-    <row r="24" spans="2:5" ht="14.25" customHeight="1">
-      <c r="B24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="7"/>
-      <c r="C25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="7"/>
-      <c r="C26" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="2:5" ht="15" customHeight="1">
-      <c r="B27" s="7"/>
-      <c r="C27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="7"/>
-      <c r="C28" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="9"/>
-      <c r="C30" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="10"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="14"/>
+      <c r="C30" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B7:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C20" r:id="rId1" location=":~:text=Layouts%20and%20containers"/>
-    <hyperlink ref="C19" r:id="rId2"/>
+    <hyperlink ref="C22" r:id="rId1" location=":~:text=Layouts%20and%20containers"/>
+    <hyperlink ref="C20" r:id="rId2"/>
     <hyperlink ref="C6" r:id="rId3" location=":~:text=multipage%20app!-,App%20model,-Now%20that%20you"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:L23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" style="5"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="5" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="L15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E4:J8"/>
+    <mergeCell ref="E11:J15"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E19:J23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/progress track.xlsx
+++ b/progress track.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E7C618-895D-4084-92D5-AFB3BB1B64CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="progress" sheetId="1" r:id="rId1"/>
     <sheet name="assignment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -205,7 +206,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -295,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -344,6 +345,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -625,25 +635,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="170" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="170" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="31" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="13" t="s">
         <v>22</v>
       </c>
@@ -651,7 +661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="13"/>
       <c r="C4" s="6" t="s">
         <v>1</v>
@@ -660,7 +670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="13"/>
       <c r="C5" s="6" t="s">
         <v>53</v>
@@ -669,14 +679,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="13"/>
       <c r="C6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="14" t="s">
         <v>23</v>
       </c>
@@ -684,122 +694,122 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="14"/>
       <c r="C8" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="14"/>
       <c r="C9" s="8"/>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="14"/>
       <c r="C10" s="8"/>
       <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="14"/>
       <c r="C11" s="8"/>
       <c r="D11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="14"/>
       <c r="C12" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="14"/>
       <c r="C13" s="8"/>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="14"/>
       <c r="C14" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="14"/>
       <c r="C15" s="8"/>
       <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="14"/>
       <c r="C16" s="8"/>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="14"/>
       <c r="C17" s="8"/>
       <c r="D17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="14"/>
       <c r="C18" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="14"/>
       <c r="C19" s="8"/>
       <c r="D19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="14"/>
       <c r="C20" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="14"/>
       <c r="C21" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="14"/>
       <c r="C22" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="14"/>
       <c r="C23" s="8"/>
       <c r="D23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="14"/>
       <c r="C24" s="8"/>
       <c r="D24" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>25</v>
       </c>
@@ -807,19 +817,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" s="15"/>
       <c r="C26" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="15"/>
       <c r="C27" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" s="14" t="s">
         <v>24</v>
       </c>
@@ -827,19 +837,19 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" s="14"/>
       <c r="C29" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30" s="14"/>
       <c r="C30" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C31" s="11" t="s">
         <v>48</v>
       </c>
@@ -852,9 +862,9 @@
     <mergeCell ref="B28:B30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C22" r:id="rId1" location=":~:text=Layouts%20and%20containers"/>
-    <hyperlink ref="C20" r:id="rId2"/>
-    <hyperlink ref="C6" r:id="rId3" location=":~:text=multipage%20app!-,App%20model,-Now%20that%20you"/>
+    <hyperlink ref="C22" r:id="rId1" location=":~:text=Layouts%20and%20containers" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C20" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C6" r:id="rId3" location=":~:text=multipage%20app!-,App%20model,-Now%20that%20you" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -862,21 +872,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.140625" style="5"/>
-    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="5"/>
+    <col min="4" max="4" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.36328125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:12" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>55</v>
       </c>
@@ -887,12 +898,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
@@ -909,7 +920,7 @@
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -917,7 +928,7 @@
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -925,7 +936,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -933,7 +944,7 @@
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -941,15 +952,15 @@
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K10" t="s">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="K10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:12" ht="29" x14ac:dyDescent="0.35">
       <c r="C11" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
@@ -965,14 +976,14 @@
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
-      <c r="K11" t="s">
+      <c r="K11" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
@@ -980,58 +991,60 @@
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
-      <c r="K12" t="s">
+      <c r="K12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:12" ht="29" x14ac:dyDescent="0.35">
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
-      <c r="K13" t="s">
+      <c r="K13" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:12" ht="29" x14ac:dyDescent="0.35">
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
-      <c r="K14" t="s">
+      <c r="K14" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:12" ht="29" x14ac:dyDescent="0.35">
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
-      <c r="L15" t="s">
+      <c r="K15" s="18"/>
+      <c r="L15" s="19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L16" t="s">
+    <row r="16" spans="3:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="K16" s="18"/>
+      <c r="L16" s="19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C19" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
@@ -1048,7 +1061,7 @@
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.35">
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -1059,7 +1072,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.35">
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -1070,7 +1083,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.35">
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -1081,7 +1094,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.35">
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
